--- a/RAAL/Weather_data/GHI_2024-03-19.xlsx
+++ b/RAAL/Weather_data/GHI_2024-03-19.xlsx
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>4943.97</v>
+        <v>4944.05</v>
       </c>
       <c r="H2">
-        <v>8205.67</v>
+        <v>8205.9</v>
       </c>
       <c r="I2">
-        <v>994.4</v>
+        <v>994.36</v>
       </c>
       <c r="J2">
-        <v>3260.09</v>
+        <v>3661.06</v>
       </c>
       <c r="K2">
-        <v>2357.89</v>
+        <v>3765.83</v>
       </c>
       <c r="L2">
-        <v>1919.42</v>
+        <v>1651.25</v>
       </c>
     </row>
   </sheetData>
@@ -878,13 +878,13 @@
         <v>52.81</v>
       </c>
       <c r="K9">
-        <v>54.66</v>
+        <v>99.04000000000001</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>172.18</v>
       </c>
       <c r="M9">
-        <v>54.66</v>
+        <v>61.71</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -913,19 +913,19 @@
         <v>298.21</v>
       </c>
       <c r="I10">
-        <v>670.78</v>
+        <v>670.8</v>
       </c>
       <c r="J10">
-        <v>77.31999999999999</v>
+        <v>77.31</v>
       </c>
       <c r="K10">
-        <v>202.75</v>
+        <v>292.39</v>
       </c>
       <c r="L10">
-        <v>169.73</v>
+        <v>620.62</v>
       </c>
       <c r="M10">
-        <v>139.62</v>
+        <v>80.29000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -951,22 +951,22 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>455.9</v>
+        <v>455.91</v>
       </c>
       <c r="I11">
-        <v>773.16</v>
+        <v>773.17</v>
       </c>
       <c r="J11">
         <v>92.67</v>
       </c>
       <c r="K11">
-        <v>424.44</v>
+        <v>453.04</v>
       </c>
       <c r="L11">
-        <v>618.72</v>
+        <v>739.8200000000001</v>
       </c>
       <c r="M11">
-        <v>127.25</v>
+        <v>98.97</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -995,19 +995,19 @@
         <v>581.62</v>
       </c>
       <c r="I12">
-        <v>830.7</v>
+        <v>830.72</v>
       </c>
       <c r="J12">
-        <v>102.47</v>
+        <v>102.46</v>
       </c>
       <c r="K12">
-        <v>538.4400000000001</v>
+        <v>569.3099999999999</v>
       </c>
       <c r="L12">
-        <v>641.51</v>
+        <v>766.55</v>
       </c>
       <c r="M12">
-        <v>164.82</v>
+        <v>121.32</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1033,22 +1033,22 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>661.91</v>
+        <v>661.92</v>
       </c>
       <c r="I13">
-        <v>860.75</v>
+        <v>860.77</v>
       </c>
       <c r="J13">
-        <v>107.97</v>
+        <v>107.96</v>
       </c>
       <c r="K13">
-        <v>547.02</v>
+        <v>603.1</v>
       </c>
       <c r="L13">
-        <v>404.34</v>
+        <v>621.54</v>
       </c>
       <c r="M13">
-        <v>284.11</v>
+        <v>198.81</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1074,22 +1074,22 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>688.92</v>
+        <v>688.9299999999999</v>
       </c>
       <c r="I14">
-        <v>869.98</v>
+        <v>870</v>
       </c>
       <c r="J14">
-        <v>109.71</v>
+        <v>109.7</v>
       </c>
       <c r="K14">
-        <v>511.63</v>
+        <v>575</v>
       </c>
       <c r="L14">
-        <v>270.99</v>
+        <v>422.15</v>
       </c>
       <c r="M14">
-        <v>328.98</v>
+        <v>290.45</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1115,22 +1115,22 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>660.1</v>
+        <v>660.12</v>
       </c>
       <c r="I15">
-        <v>860.1799999999999</v>
+        <v>860.21</v>
       </c>
       <c r="J15">
-        <v>107.83</v>
+        <v>107.82</v>
       </c>
       <c r="K15">
-        <v>448.1</v>
+        <v>506.95</v>
       </c>
       <c r="L15">
-        <v>184.61</v>
+        <v>304.91</v>
       </c>
       <c r="M15">
-        <v>327.87</v>
+        <v>308.4</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1156,22 +1156,22 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>578.2</v>
+        <v>578.22</v>
       </c>
       <c r="I16">
-        <v>829.4400000000001</v>
+        <v>829.47</v>
       </c>
       <c r="J16">
-        <v>102.19</v>
+        <v>102.18</v>
       </c>
       <c r="K16">
-        <v>300.77</v>
+        <v>336.83</v>
       </c>
       <c r="L16">
-        <v>68</v>
+        <v>118.04</v>
       </c>
       <c r="M16">
-        <v>259.84</v>
+        <v>265.89</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1197,22 +1197,22 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>451.28</v>
+        <v>451.29</v>
       </c>
       <c r="I17">
-        <v>770.87</v>
+        <v>770.9</v>
       </c>
       <c r="J17">
-        <v>92.25</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="K17">
-        <v>116.76</v>
+        <v>112.83</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>116.76</v>
+        <v>112.83</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1241,19 +1241,19 @@
         <v>292.98</v>
       </c>
       <c r="I18">
-        <v>666.62</v>
+        <v>666.64</v>
       </c>
       <c r="J18">
         <v>76.7</v>
       </c>
       <c r="K18">
-        <v>75.22</v>
+        <v>73.39</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>75.22</v>
+        <v>73.39</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1282,19 +1282,19 @@
         <v>125.06</v>
       </c>
       <c r="I19">
-        <v>460.62</v>
+        <v>460.64</v>
       </c>
       <c r="J19">
-        <v>51.84</v>
+        <v>51.83</v>
       </c>
       <c r="K19">
-        <v>33.25</v>
+        <v>32.21</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>33.25</v>
+        <v>32.21</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1323,19 +1323,19 @@
         <v>9.210000000000001</v>
       </c>
       <c r="I20">
-        <v>67.06</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="J20">
         <v>9.880000000000001</v>
       </c>
       <c r="K20">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="21" spans="1:13">
